--- a/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
+++ b/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>Table Name - trnEmpTransferRequest</t>
   </si>
@@ -218,13 +218,109 @@
   </si>
   <si>
     <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>For IsSeriousIllness Check.</t>
+  </si>
+  <si>
+    <t>For IsDisable Check.</t>
+  </si>
+  <si>
+    <t>For  IsSpouseInService Check.</t>
+  </si>
+  <si>
+    <t>For  IsLocked record.</t>
+  </si>
+  <si>
+    <t>For IsMutualTransfer record.</t>
+  </si>
+  <si>
+    <t>For IsdoneDSC record.</t>
+  </si>
+  <si>
+    <t>Take OfficeAddress as String.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take ImagePath as String.</t>
+  </si>
+  <si>
+    <t>Get EmpRegId  (MstEmployeeOfficialInfo) in Numaric .</t>
+  </si>
+  <si>
+    <t>Get EmpUniqueId  (MstEmployeeRegistration) in Numaric .</t>
+  </si>
+  <si>
+    <t>Take DisabilityPercentage as String.</t>
+  </si>
+  <si>
+    <t>Take OrderNumber as String.</t>
+  </si>
+  <si>
+    <t>Take OrderRemark as String.</t>
+  </si>
+  <si>
+    <t>Take TransferRequestNumber as String.</t>
+  </si>
+  <si>
+    <t>Take VerificationCode as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OfficeTypeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OfficeTypeName  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t>Take DisabilityName as String.</t>
+  </si>
+  <si>
+    <t>Take SpouseName as String.</t>
+  </si>
+  <si>
+    <t>Take SpousePost as String.</t>
+  </si>
+  <si>
+    <t>Take PlacedMonthPayBill as String.</t>
+  </si>
+  <si>
+    <t>Take SpouseOfficeName as String.</t>
+  </si>
+  <si>
+    <t>Take SpousePostingLocation as String.</t>
+  </si>
+  <si>
+    <t>Take SpouseUniqueCode as String.</t>
+  </si>
+  <si>
+    <t>Take SpouseDepartment as String.</t>
+  </si>
+  <si>
+    <t>Take TranferSeekingReason as String.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +335,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -275,14 +383,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,6 +394,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,714 +723,794 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
+++ b/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>Table Name - trnEmpTransferRequest</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Take TranferSeekingReason as String.</t>
+  </si>
+  <si>
+    <t>Take TransferStatus as Int.</t>
   </si>
 </sst>
 </file>
@@ -394,12 +397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -407,6 +404,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +717,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,32 +730,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -790,7 +793,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -798,7 +801,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -808,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -816,7 +819,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -826,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -844,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -862,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -880,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -898,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -916,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -934,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -952,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -970,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -988,7 +991,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1006,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1024,7 +1027,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1042,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1060,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1078,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1096,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1114,7 +1117,9 @@
         <v>16</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1130,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1148,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1166,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1184,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1202,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1220,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1238,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1246,7 +1251,7 @@
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1256,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1264,7 +1269,7 @@
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1274,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1292,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1310,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1328,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1346,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1364,7 +1369,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1382,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1400,7 +1405,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1418,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1436,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1454,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1472,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1490,7 +1495,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1508,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>94</v>
       </c>
     </row>

--- a/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
+++ b/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
   <si>
     <t>Table Name - trnEmpTransferRequest</t>
   </si>
@@ -317,13 +317,16 @@
   </si>
   <si>
     <t>Take TransferStatus as Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +347,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -359,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -382,11 +393,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +457,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A46" sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,10 +1574,21 @@
         <v>94</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
+++ b/HRMS/Transfer And Promotion/trnEmpTransferRequest.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name - trnEmpTransferRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -320,6 +317,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : कर्मचारी Transfer Request का रिकॉर्ड मेन्टेन किया जाता है |
+</t>
   </si>
 </sst>
 </file>
@@ -774,7 +775,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:F46"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +799,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -816,22 +817,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,19 +840,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,17 +860,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,17 +878,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,17 +896,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,17 +914,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,17 +932,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,17 +950,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,17 +968,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -985,17 +986,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,17 +1004,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,17 +1022,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,17 +1040,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,17 +1058,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,17 +1076,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,17 +1094,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,17 +1112,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,17 +1130,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,17 +1148,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,17 +1166,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,17 +1184,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,17 +1202,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,17 +1220,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,17 +1238,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,17 +1256,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,17 +1274,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,17 +1292,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,17 +1310,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1327,17 +1328,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,17 +1346,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,17 +1364,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,17 +1382,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,17 +1400,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,17 +1418,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,17 +1436,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,17 +1454,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,17 +1472,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,17 +1490,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,17 +1508,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,17 +1526,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,17 +1544,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,22 +1562,22 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
